--- a/biology/Botanique/Cleistocactus_winteri/Cleistocactus_winteri.xlsx
+++ b/biology/Botanique/Cleistocactus_winteri/Cleistocactus_winteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleistocactus winteri ou queue de rat doré est une espèce de plantes à fleurs de la famille des Cactaceae. C'est une plante succulente dont l'aire de répartition indigène est la Bolivie (Santa Cruz). Son habitat est le versant oriental des Andes du Pérou à l'Argentine.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cleistocactus winteri subsp. colademono a remporté le Award of Garden Merit de la Royal Horticultural Society[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cleistocactus winteri subsp. colademono a remporté le Award of Garden Merit de la Royal Horticultural Society.
 Borzicactus colademononis (Diers &amp; Krahn) Lodé
 Cleistocactus colademononis (Diers &amp; Krahn) Mottram
 Hildewintera colademononis Diers &amp; Krahn
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cleistocactus winteri est  un sous-arbrisseau ou un lithophyte succulent qui pousse principalement dans le biome du désert ou des arbustes secs. C'est un cactus colonnaire rampant qui forme d'énormes monticules enchevêtrés dont la croissance est assez rapide, jusqu'à 90 centimètres de haut avec des tiges de 6 centimètres de diamètre et présentant 16 à 17 côtes, avec de très nombreuses épines de 0,4 à 1 centimètre de long[2]. Ces épines dorées courtes et hérissées recouvrent entièrement la surface des tiges. Ses fleurs en forme de tubes allongés sont roses saumon au printemps et en été et mesurent de 4 à 6 centimètres de long et 5 centimètres de diamètre. Les fleurs survivent quelques jours et sont pollinisées par les colibris avant de se transformer rapidement en fruits petits ronds et charnus de 1 centimètre de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cleistocactus winteri est  un sous-arbrisseau ou un lithophyte succulent qui pousse principalement dans le biome du désert ou des arbustes secs. C'est un cactus colonnaire rampant qui forme d'énormes monticules enchevêtrés dont la croissance est assez rapide, jusqu'à 90 centimètres de haut avec des tiges de 6 centimètres de diamètre et présentant 16 à 17 côtes, avec de très nombreuses épines de 0,4 à 1 centimètre de long. Ces épines dorées courtes et hérissées recouvrent entièrement la surface des tiges. Ses fleurs en forme de tubes allongés sont roses saumon au printemps et en été et mesurent de 4 à 6 centimètres de long et 5 centimètres de diamètre. Les fleurs survivent quelques jours et sont pollinisées par les colibris avant de se transformer rapidement en fruits petits ronds et charnus de 1 centimètre de long.
 La plante a besoin d'eau pendant l'été mais doit être maintenue au sec pendant l'hiver. Saz reproduction s'effectue par graines et par boutures.
 			Aspect columnaire.
 			Gros plan.
